--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55577.76555306638</v>
+        <v>-41851.40741564821</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-108875.5026245632</v>
+        <v>-108875.5026245633</v>
       </c>
       <c r="F6" t="n">
         <v>24224.49737543679</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41851.40741564821</v>
+        <v>-199603.703019031</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11989082.75004998</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>26264715.37427573</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1295504.345420741</v>
+        <v>2117315.233528294</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22594,7 +22594,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,34 +22646,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,7 +22728,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>129.0132581705354</v>
@@ -22749,7 +22749,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23068,7 +23068,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23208,7 +23208,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
@@ -23217,13 +23217,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,13 +23281,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4004983079896</v>
@@ -23299,13 +23299,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,10 +23357,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>80.29914934735042</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23460,7 +23460,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23539,10 +23539,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,7 +23594,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>93.17061249236157</v>
@@ -23621,7 +23621,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23679,7 +23679,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>90.4687457914608</v>
@@ -23694,10 +23694,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23755,13 +23755,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>113.4004983079896</v>
@@ -23776,10 +23776,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,7 +23831,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>93.17061249236157</v>
@@ -23855,10 +23855,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,10 +23913,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
@@ -23934,7 +23934,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,10 +23992,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
@@ -24013,10 +24013,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,13 +24068,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>61.18167021676314</v>
@@ -24095,7 +24095,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,13 +24150,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
@@ -24168,10 +24168,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24250,10 +24250,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24332,7 +24332,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,10 +24387,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
@@ -24408,7 +24408,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24487,10 +24487,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24542,7 +24542,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,7 +24624,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
@@ -24645,7 +24645,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24703,7 +24703,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>135.370731907559</v>
@@ -24724,10 +24724,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,7 +24779,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>93.17061249236157</v>
@@ -24806,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,7 +24861,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>94.30397654773019</v>
@@ -24940,10 +24940,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
@@ -24958,13 +24958,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,7 +25016,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>93.17061249236157</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25098,7 +25098,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>94.30397654773019</v>
@@ -25119,7 +25119,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -25198,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,10 +25335,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>90.4687457914608</v>
@@ -25353,10 +25353,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25435,10 +25435,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,10 +25572,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>90.4687457914608</v>
@@ -25587,13 +25587,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25651,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25727,13 +25727,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>61.18167021676314</v>
@@ -25754,7 +25754,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25809,13 +25809,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>92.09541281912071</v>
@@ -25827,10 +25827,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25888,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25912,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,16 +25964,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>51.84373129681028</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26058,7 +26058,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>96.22962838366004</v>
@@ -26067,7 +26067,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.019543560687452e-11</v>
+        <v>103617.3343765993</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.019543560687452e-11</v>
+        <v>13677.63592012166</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.019543560687452e-11</v>
+        <v>61282.31541615909</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>149302.7690314782</v>
+        <v>273590.0742430118</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>149302.7690314782</v>
+        <v>212745.8448957052</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>149302.7690314782</v>
+        <v>235424.0584510673</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149302.7690314782</v>
+        <v>243202.56203787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>149302.7690314782</v>
+        <v>209850.7767459255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>149302.7690314782</v>
+        <v>195351.7765573507</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>149302.7690314782</v>
+        <v>203049.8173181</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149302.7690314782</v>
+        <v>244099.0669988446</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149302.7690314782</v>
+        <v>221190.7690722284</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>149302.7690314782</v>
+        <v>225290.1512413723</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149302.7690314782</v>
+        <v>205822.9503255997</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149302.7690314782</v>
+        <v>199694.0946477511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16053.38983299427</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2119.070353821668</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9494.443233489443</v>
       </c>
       <c r="E2" t="n">
-        <v>27836.10948044511</v>
+        <v>47091.88916110525</v>
       </c>
       <c r="F2" t="n">
-        <v>27836.10948044511</v>
+        <v>37665.31841715633</v>
       </c>
       <c r="G2" t="n">
-        <v>27836.10948044511</v>
+        <v>41178.84446094484</v>
       </c>
       <c r="H2" t="n">
-        <v>27836.10948044511</v>
+        <v>42383.96473495653</v>
       </c>
       <c r="I2" t="n">
-        <v>27836.10948044511</v>
+        <v>37216.7867319792</v>
       </c>
       <c r="J2" t="n">
-        <v>27836.10948044511</v>
+        <v>34970.46275910141</v>
       </c>
       <c r="K2" t="n">
-        <v>27836.10948044511</v>
+        <v>36163.11696147102</v>
       </c>
       <c r="L2" t="n">
-        <v>27836.10948044511</v>
+        <v>42522.85986975538</v>
       </c>
       <c r="M2" t="n">
-        <v>27836.10948044511</v>
+        <v>38973.68695154725</v>
       </c>
       <c r="N2" t="n">
-        <v>27836.10948044511</v>
+        <v>39608.80249887941</v>
       </c>
       <c r="O2" t="n">
-        <v>27836.10948044511</v>
+        <v>36592.75728657662</v>
       </c>
       <c r="P2" t="n">
-        <v>27836.10948044511</v>
+        <v>35643.21626606486</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17512.78890872101</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2311.713113260001</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10357.57443653394</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21006.30510617469</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10722.77338550316</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14555.71088781788</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15870.38755037609</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10233.46609258265</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>7782.930849443244</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9084.008161119182</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16021.90951561121</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>12150.0845139296</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12842.93783829196</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9552.706697598012</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8516.843766130647</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="E6" t="n">
-        <v>-108875.5026245633</v>
+        <v>-126870.9914638572</v>
       </c>
       <c r="F6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142894</v>
       </c>
       <c r="G6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142897</v>
       </c>
       <c r="H6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142894</v>
       </c>
       <c r="I6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142886</v>
       </c>
       <c r="J6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.00853614289</v>
       </c>
       <c r="K6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142883</v>
       </c>
       <c r="L6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142883</v>
       </c>
       <c r="M6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142897</v>
       </c>
       <c r="N6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142894</v>
       </c>
       <c r="O6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142894</v>
       </c>
       <c r="P6" t="n">
-        <v>24224.49737543679</v>
+        <v>6229.008536142886</v>
       </c>
     </row>
   </sheetData>
